--- a/20181114comparisonAmongJsonldRdfApi.xlsx
+++ b/20181114comparisonAmongJsonldRdfApi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushida\Documents\work20130923\JSTwork\ElixerBH2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA235DC-8214-433E-BF81-D68145E396EE}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96798596-A3A1-4FDA-97A3-88BE482D4085}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7824" xr2:uid="{DB58D1FF-C9AA-4B20-B8B0-E0FF832EAEEB}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>&lt;additionDate&gt;2015-01-22T11:13:20Z&lt;/additionDate&gt;</t>
   </si>
@@ -200,25 +200,10 @@
     <t>&lt;additionDate&gt;2017-03-27T08:35:13Z&lt;/additionDate&gt;</t>
   </si>
   <si>
-    <t>&lt;publication&gt;&lt;list-item&gt;&lt;doi&gt;&lt;/doi&gt;&lt;version&gt;&lt;/version&gt;&lt;pmid&gt;21081562&lt;/pmid&gt;&lt;type&gt;&lt;/type&gt;&lt;pmcid&gt;&lt;/pmcid&gt;&lt;metadata&gt;&lt;title&gt;COXPRESdb: A database to compare gene coexpression in seven model animals&lt;/title&gt;&lt;abstract&gt;Publicly available databases of coexpressed gene sets are a valuable resource for a wide variety of experimental studies, including gene targeting for functional identification, and for investigations of regulatory mechanisms or protein-protein interaction networks. Although coexpressed gene databases are becoming more and more popular in the field of plant biology, those with animal data are rather limited, possibly due to the lower reliability of the coexpression data. The original COXPRESdb (coexpressed gene database) (http://coxpresdb.jp) represented the coexpression relationship for human and mouse. Here, we report updates of this database that especially focus on the enhancement of the reliability of gene coexpression data in animals. For this purpose, we implemented a new comparable coexpression measure, Mutual Rank, included five other animal species, rat, chicken, zebrafish, fly and nematoda, to assess the conservation of coexpression, and added different layers of omics data into the integrated network of genes. Comparison of coexpression is a key concept to enhance the reliability of gene coexpression, and the integration of different information can reduce the noise inherent in the information. With the functions for gene network representation, COXPRESdb can help researchers to clarify the functional and regulatory networks of genes in a broad array of animal species. c The Author(s) 2010.&lt;/abstract&gt;&lt;citationCount&gt;56&lt;/citationCount&gt;&lt;authors&gt;&lt;list-item&gt;&lt;name&gt;Obayashi T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kinoshita K.&lt;/name&gt;&lt;/list-item&gt;&lt;/authors&gt;&lt;date&gt;2011-01-01T00:00:00Z&lt;/date&gt;&lt;journal&gt;Nucleic Acids Research&lt;/journal&gt;&lt;/metadata&gt;&lt;/list-item&gt;&lt;/publication&gt;</t>
-  </si>
-  <si>
     <t>&lt;id&gt;coxpresdb&lt;/id&gt;</t>
   </si>
   <si>
-    <t>&lt;homepage&gt;http://coxpresdb.jp&lt;/homepage&gt;</t>
-  </si>
-  <si>
     <t>&lt;lastUpdate&gt;2018-04-13T14:28:04Z&lt;/lastUpdate&gt;</t>
-  </si>
-  <si>
-    <t>&lt;description&gt;COXPRESdb (coexpressed gene database) represents the coexpression relationship for human and mouse. Upgrades include a new comparable coexpression measure, Mutual Rank, five other animal species, rat, chicken, zebrafish, fly and nematoda, and addition of different layers of omics data into the integrated network of genes.&lt;/description&gt;</t>
-  </si>
-  <si>
-    <t>&lt;toolType&gt;&lt;list-item&gt;Database portal&lt;/list-item&gt;&lt;/toolType&gt;</t>
-  </si>
-  <si>
-    <t>&lt;topic&gt;&lt;list-item&gt;&lt;term&gt;Zoology&lt;/term&gt;&lt;uri&gt;http://edamontology.org/topic_3500&lt;/uri&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;term&gt;Molecular interactions, pathways and networks&lt;/term&gt;&lt;uri&gt;http://edamontology.org/topic_0602&lt;/uri&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;term&gt;Plant biology&lt;/term&gt;&lt;uri&gt;http://edamontology.org/topic_0780&lt;/uri&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;term&gt;Omics&lt;/term&gt;&lt;uri&gt;http://edamontology.org/topic_3391&lt;/uri&gt;&lt;/list-item&gt;&lt;/topic&gt;</t>
   </si>
   <si>
     <t>&lt;name&gt;COXPRESSdb Support&lt;/name&gt;</t>
@@ -280,9 +265,6 @@
     <t>&lt;additionDate&gt;2017-02-10T14:15:23Z&lt;/additionDate&gt;</t>
   </si>
   <si>
-    <t>&lt;publication&gt;&lt;list-item&gt;&lt;doi&gt;&lt;/doi&gt;&lt;version&gt;&lt;/version&gt;&lt;pmid&gt;15103394&lt;/pmid&gt;&lt;type&gt;&lt;/type&gt;&lt;pmcid&gt;&lt;/pmcid&gt;&lt;metadata&gt;&lt;title&gt;Integrative annotation of 21,037 human genes validated by full-length cDNA clones&lt;/title&gt;&lt;abstract&gt;The human genome sequence defines our inherent biological potential; the realization of the biology encoded therein requires knowledge of the function of each gene. Currently, our knowledge in this area is still limited. Several lines of investigation have been used to elucidate the structure and function of the genes in the human genome. Even so, gene prediction remains a difficult task, as the varieties of transcripts of a gene may vary to a great extent. We thus performed an exhaustive integrative characterization of 41,118 full-length cDNAs that capture the gene transcripts as complete functional cassettes, providing an unequivocal report of structural and functional diversity at the gene level. Our international collaboration has validated 21,037 human gene candidates by analysis of high-quality full-length cDNA clones through curation using unified criteria. This led to the identification of 5,155 new gene candidates. It also manifested the most reliable way to control the quality of the cDNA clones. We have developed a human gene database, called the H-Invitational Database (H-InvDB; http://www.h-invitational.jp/). It provides the following: integrative annotation of human genes, description of gene structures, details of novel alternative splicing isoforms, non-protein-coding RNAs, functional domains, subcellular localizations, metabolic pathways, predictions of protein three-dimensional structure, mapping of known single nucleotide polymorphisms (SNPs), identification of polymorphic microsatellite repeats within human genes, and comparative results with mouse full-length cDNAs. The H-InvDB analysis has shown that up to 4% of the human genome sequence (National Center for Biotechnology Information build 34 assembly) may contain misassembled or missing regions. We found that 6.5% of the human gene candidates (1,377 loci) did not have a good protein-coding open reading frame, of which 296 loci are strong candidates for non-protein-coding RNA genes. In addition, among 72,027 uniquely mapped SNPs and insertions/deletions localized within human genes, 13,215 nonsynonymous SNPs, 315 nonsense SNPs, and 452 indels occurred in coding regions. Together with 25 polymorphic microsatellite repeats present in coding regions, they may alter protein structure, causing phenotypic effects or resulting in disease. The H-InvDB platform represents a substantial contribution to resources needed for the exploration of human biology and pathology.&lt;/abstract&gt;&lt;citationCount&gt;260&lt;/citationCount&gt;&lt;authors&gt;&lt;list-item&gt;&lt;name&gt;Imanishi T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Itoh T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Suzuki Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;O'Donovan C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Fukuchi S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Koyanagi K.O.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Barrero R.A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tamura T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Yamaguchi-Kabata Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tanino M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Yura K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Miyazaki S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ikeo K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Homma K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kasprzyk A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nishikawa T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hirakawa M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Thierry-Mieg J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Thierry-Mieg D.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ashurst J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Jia L.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nakao M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Thomas M.A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Mulder N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Karavidopoulou Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Jin L.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kim S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Yasuda T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Lenhard B.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Eveno E.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Suzuki Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Yamasaki C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Takeda J.-I.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Gough C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hilton P.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Fujii Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sakai H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tanaka S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Amid C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Bellgard M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;de Fatima Bonaldo M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Bono H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Bromberg S.K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Brookes A.J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Bruford E.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Carninci P.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Chelala C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Couillault C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;de Souza S.J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Debily M.-A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Devignes M.-D.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Dubchak I.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Endo T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Estreicher A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Eyras E.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Fukami-Kobayashi K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Gopinath G.R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Graudens E.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hahn Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Han M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Han Z.-G.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hanada K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hanaoka H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Harada E.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hashimoto K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hinz U.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hirai M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hishiki T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hopkinson I.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Imbeaud S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Inoko H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kanapin A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kaneko Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kasukawa T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kelso J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kersey P.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kikuno R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kimura K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Korn B.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kuryshev V.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Makalowska I.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Makino T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Mano S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Mariage-Samson R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Mashima J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Matsuda H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Mewes H.-W.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Minoshima S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nagai K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nagasaki H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nagata N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nigam R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ogasawara O.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ohara O.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ohtsubo M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Okada N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Okido T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Oota S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ota M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ota T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Otsuki T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Piatier-Tonneau D.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Poustka A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ren S.-X.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Saitou N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sakai K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sakamoto S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sakate R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Schupp I.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Servant F.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sherry S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Shiba R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Shimizu N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Shimoyama M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Simpson A.J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Soares B.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Steward C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Suwa M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Suzuki M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Takahashi A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tamiya G.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tanaka H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Taylor T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Terwilliger J.D.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Unneberg P.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Veeramachaneni V.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Watanabe S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Wilming L.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Yasuda N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hyang-Yoo S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Stodolsky M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Makalowski W.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Go M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nakai K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Takagi T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kanehisa M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sakaki Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Quackenbush J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Okazaki Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hayashizaki Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hide W.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Chakraborty R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nishikawa K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sugawara H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tateno Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Chen Z.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Oishi M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tonellato P.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Apweiler R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Okubo K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Wagner L.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Wiemann S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Strausberg R.L.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Isogai T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Auffray C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nomura N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Gojobori T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sugano S.&lt;/name&gt;&lt;/list-item&gt;&lt;/authors&gt;&lt;date&gt;2004-09-27T00:00:00Z&lt;/date&gt;&lt;journal&gt;PLoS Biology&lt;/journal&gt;&lt;/metadata&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;doi&gt;&lt;/doi&gt;&lt;version&gt;&lt;/version&gt;&lt;pmid&gt;16845023&lt;/pmid&gt;&lt;type&gt;&lt;/type&gt;&lt;pmcid&gt;&lt;/pmcid&gt;&lt;metadata&gt;&lt;title&gt;TACT: Transcriptome Auto-annotation Conducting Tool of H-InvDB&lt;/title&gt;&lt;abstract&gt;Transcriptome Auto-annotation Conducting Tool (TACT) is a newly developed web-based automated tool for conducting functional annotation of transcripts by the integration of sequence similarity searches and functional motif predictions. We developed the TACT system by integrating two kinds of similarity searches, FASTY and BLASTX, against protein sequence databases, UniProtKB (Swiss-Prot/TrEMBL) and RefSeq, and a unified motif prediction program, InterProScan, into the ORF-prediction pipeline originally designed for the 'H-Invitational' human transcriptome annotation project. This system successively applies these constituent programs to an mRNA sequence in order to predict the most plausible ORF and the function of the protein encoded. In this study, we applied the TACT system to 19 574 non-redundant human transcripts registered in H-InvDB and evaluated its predictive power by the degree of agreement with human-curated functional annotation in H-InvDB. As a result, the TACT system could assign functional description to 12 559 transcripts (64.2%), the remainder being hypothetical proteins. Furthermore, the overall agreement of functional annotation with H-InvDB, including those transcripts annotated as hypothetical proteins, was 83.9% (16 432/19 574). These results show that the TACT system is useful for functional annotation and that the prediction of ORFs and protein functions is highly accurate and close to the results of human curation. TACT is freely available at http://www.jbirc.aist.go.jp/tact/. c The Author 2006. Published by Oxford University Press. All rights reserved.&lt;/abstract&gt;&lt;citationCount&gt;5&lt;/citationCount&gt;&lt;authors&gt;&lt;list-item&gt;&lt;name&gt;Yamasaki C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kawashima H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Todokoro F.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Imamizu Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ogawa M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tanino M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Itoh T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Gojobori T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Imanishi T.&lt;/name&gt;&lt;/list-item&gt;&lt;/authors&gt;&lt;date&gt;2006-07-01T00:00:00Z&lt;/date&gt;&lt;journal&gt;Nucleic Acids Research&lt;/journal&gt;&lt;/metadata&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;doi&gt;&lt;/doi&gt;&lt;version&gt;&lt;/version&gt;&lt;pmid&gt;16185827&lt;/pmid&gt;&lt;type&gt;&lt;/type&gt;&lt;pmcid&gt;&lt;/pmcid&gt;&lt;metadata&gt;&lt;title&gt;Investigation of protein functions through data-mining on integrated human transcriptome database, H-Invitational database (H-InvDB)&lt;/title&gt;&lt;abstract&gt;H-Invitational Database (H-InvDB; http://www.h-invitational.jp/) is a human transcriptome database, containing integrative annotation of 41,118 full-length cDNA clones originated from 21,037 loci. H-InvDB is a product of the H-Invitational project, an international collaboration to systematically and functionally validate human genes by analysis of a unique set of high quality full-length cDNA clones using automatic annotation and human curation under unified criteria. Here, 19,574 proteins encoded by these cDNAs were classified into 11,709 function-known and 7865 function-unknown hypothetical proteins by similarity with protein databases and motif prediction (InterProScan). The proportion of "hypothetical proteins" in H-InvDB was as high as 40.4%. In this study, we thus conducted data-mining in H-InvDB with the aim of assigning advanced functional annotations to those hypothetical proteins. First, by data-mining in the H-InvDB version of GTOP, we identified 337 SCOP domains within 7865 H-Inv hypothetical proteins. Second, by data-mining of predicted subcellular localization by SOSUI and TMHMM in H-InvDB, we found 1032 transmembrane proteins within H-Inv hypothetical proteins. These results clearly demonstrate that structural prediction is effective for functional annotation of proteins with unknown functions. All the data in H-InvDB are shown in two main views, the cDNA view and the Locus view, and five auxiliary databases with web-based viewers; DiseaseInfo Viewer, H-ANGEL, Clustering Viewer, G-integra and TOPO Viewer; the data also are provided as flat files and XML files. The data consists of descriptions of their gene structures, novel alternative splicing isoforms, functional RNAs, functional domains, subcellular localizations, metabolic pathways, predictions of protein 3D structure, mapping of SNPs and microsatellite repeat motifs in relation with orphan diseases, gene expression profiling, and comparisons with mouse full-length cDNAs in the context of molecular evolution. This unique integrative platform for conducting in silico data-mining represents a substantial contribution to resources required for the exploration of human biology and pathology. c 2005 Elsevier B.V. All rights reserved.&lt;/abstract&gt;&lt;citationCount&gt;15&lt;/citationCount&gt;&lt;authors&gt;&lt;list-item&gt;&lt;name&gt;Yamasaki C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Koyanagi K.O.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Fujii Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Itoh T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Barrero R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tamura T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Yamaguchi-Kabata Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tanino M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Takeda J.-I.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Fukuchi S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Miyazaki S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nomura N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sugano S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Imanishi T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Gojobori T.&lt;/name&gt;&lt;/list-item&gt;&lt;/authors&gt;&lt;date&gt;2005-12-30T00:00:00Z&lt;/date&gt;&lt;journal&gt;Gene&lt;/journal&gt;&lt;/metadata&gt;&lt;/list-item&gt;&lt;/publication&gt;</t>
-  </si>
-  <si>
     <t>&lt;id&gt;tact&lt;/id&gt;</t>
   </si>
   <si>
@@ -994,15 +976,260 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>api ("name"-&gt;lack, "publisher"-&gt;lack)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>owner</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>json-ld (created by Yatsuzuka)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;publication&gt;&lt;list-item&gt;&lt;doi&gt;&lt;/doi&gt;&lt;version&gt;&lt;/version&gt;&lt;pmid&gt;21081562&lt;/pmid&gt;&lt;type&gt;&lt;/type&gt;&lt;pmcid&gt;&lt;/pmcid&gt;&lt;metadata&gt;&lt;title&gt;COXPRESdb: A database to compare gene coexpression in seven model animals&lt;/title&gt;&lt;abstract&gt;Publicly available databases of coexpressed gene sets are a valuable resource for a wide variety of experimental studies, including gene targeting for functional identification, and for investigations of regulatory mechanisms or protein-protein interaction networks. Although coexpressed gene databases are becoming more and more popular in the field of plant biology, those with animal data are rather limited, possibly due to the lower reliability of the coexpression data. The original COXPRESdb (coexpressed gene database) (http://coxpresdb.jp) represented the coexpression relationship for human and mouse. Here, we report updates of this database that especially focus on the enhancement of the reliability of gene coexpression data in animals. For this purpose, we implemented a new comparable coexpression measure, Mutual Rank, included five other animal species, rat, chicken, zebrafish, fly and nematoda, to assess the conservation of coexpression, and added different layers of omics data into the integrated network of genes. Comparison of coexpression is a key concept to enhance the reliability of gene coexpression, and the integration of different information can reduce the noise inherent in the information. With the functions for gene network representation, COXPRESdb can help researchers to clarify the functional and regulatory networks of genes in a broad array of animal species. c The Author(s) 2010.&lt;/abstract&gt;&lt;citationCount&gt;56&lt;/citationCount&gt;&lt;authors&gt;&lt;list-item&gt;&lt;name&gt;Obayashi T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kinoshita K.&lt;/name&gt;&lt;/list-item&gt;&lt;/authors&gt;&lt;date&gt;2011-01-01T00:00:00Z&lt;/date&gt;&lt;journal&gt;Nucleic Acids Research&lt;/journal&gt;&lt;/metadata&gt;&lt;/list-item&gt;&lt;/publication&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;description&gt;COXPRESdb (coexpressed gene database) represents the coexpression relationship for human and mouse. Upgrades include a new comparable coexpression measure, Mutual Rank, five other animal species, rat, chicken, zebrafish, fly and nematoda, and addition of different layers of omics data into the integrated network of genes.&lt;/description&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api ("name"-&gt;lack,)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>owner (-&gt; publisher?)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;owner&gt;ELIXIR-EE&lt;/owner&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;publication&gt;&lt;list-item&gt;&lt;doi&gt;&lt;/doi&gt;&lt;version&gt;&lt;/version&gt;&lt;pmid&gt;15103394&lt;/pmid&gt;&lt;type&gt;&lt;/type&gt;&lt;pmcid&gt;&lt;/pmcid&gt;&lt;metadata&gt;&lt;title&gt;Integrative annotation of 21,037 human genes validated by full-length cDNA clones&lt;/title&gt;&lt;abstract&gt;The human genome sequence defines our inherent biological potential; the realization of the biology encoded therein requires knowledge of the function of each gene. Currently, our knowledge in this area is still limited. Several lines of investigation have been used to elucidate the structure and function of the genes in the human genome. Even so, gene prediction remains a difficult task, as the varieties of transcripts of a gene may vary to a great extent. We thus performed an exhaustive integrative characterization of 41,118 full-length cDNAs that capture the gene transcripts as complete functional cassettes, providing an unequivocal report of structural and functional diversity at the gene level. Our international collaboration has validated 21,037 human gene candidates by analysis of high-quality full-length cDNA clones through curation using unified criteria. This led to the identification of 5,155 new gene candidates. It also manifested the most reliable way to control the quality of the cDNA clones. We have developed a human gene database, called the H-Invitational Database (H-InvDB; http://www.h-invitational.jp/). It provides the following: integrative annotation of human genes, description of gene structures, details of novel alternative splicing isoforms, non-protein-coding RNAs, functional domains, subcellular localizations, metabolic pathways, predictions of protein three-dimensional structure, mapping of known single nucleotide polymorphisms (SNPs), identification of polymorphic microsatellite repeats within human genes, and comparative results with mouse full-length cDNAs. The H-InvDB analysis has shown that up to 4% of the human genome sequence (National Center for Biotechnology Information build 34 assembly) may contain misassembled or missing regions. We found that 6.5% of the human gene candidates (1,377 loci) did not have a good protein-coding open reading frame, of which 296 loci are strong candidates for non-protein-coding RNA genes. In addition, among 72,027 uniquely mapped SNPs and insertions/deletions localized within human genes, 13,215 nonsynonymous SNPs, 315 nonsense SNPs, and 452 indels occurred in coding regions. Together with 25 polymorphic microsatellite repeats present in coding regions, they may alter protein structure, causing phenotypic effects or resulting in disease. The H-InvDB platform represents a substantial contribution to resources needed for the exploration of human biology and pathology.&lt;/abstract&gt;&lt;citationCount&gt;260&lt;/citationCount&gt;&lt;authors&gt;&lt;list-item&gt;&lt;name&gt;Imanishi T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Itoh T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Suzuki Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;O'Donovan C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Fukuchi S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Koyanagi K.O.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Barrero R.A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tamura T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Yamaguchi-Kabata Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tanino M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Yura K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Miyazaki S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ikeo K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Homma K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kasprzyk A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nishikawa T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hirakawa M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Thierry-Mieg J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Thierry-Mieg D.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ashurst J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Jia L.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nakao M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Thomas M.A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Mulder N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Karavidopoulou Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Jin L.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kim S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Yasuda T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Lenhard B.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Eveno E.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Suzuki Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Yamasaki C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Takeda J.-I.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Gough C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hilton P.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Fujii Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sakai H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tanaka S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Amid C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Bellgard M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;de Fatima Bonaldo M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Bono H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Bromberg S.K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Brookes A.J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Bruford E.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Carninci P.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Chelala C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Couillault C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;de Souza S.J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Debily M.-A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Devignes M.-D.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Dubchak I.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Endo T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Estreicher A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Eyras E.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Fukami-Kobayashi K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Gopinath G.R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Graudens E.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hahn Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Han M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Han Z.-G.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hanada K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hanaoka H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Harada E.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hashimoto K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hinz U.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hirai M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hishiki T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hopkinson I.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Imbeaud S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Inoko H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kanapin A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kaneko Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kasukawa T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kelso J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kersey P.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kikuno R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kimura K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Korn B.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kuryshev V.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Makalowska I.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Makino T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Mano S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Mariage-Samson R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Mashima J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Matsuda H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Mewes H.-W.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Minoshima S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nagai K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nagasaki H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nagata N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nigam R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ogasawara O.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ohara O.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ohtsubo M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Okada N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Okido T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Oota S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ota M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ota T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Otsuki T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Piatier-Tonneau D.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Poustka A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ren S.-X.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Saitou N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sakai K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sakamoto S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sakate R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Schupp I.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Servant F.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sherry S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Shiba R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Shimizu N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Shimoyama M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Simpson A.J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Soares B.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Steward C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Suwa M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Suzuki M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Takahashi A.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tamiya G.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tanaka H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Taylor T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Terwilliger J.D.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Unneberg P.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Veeramachaneni V.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Watanabe S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Wilming L.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Yasuda N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hyang-Yoo S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Stodolsky M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Makalowski W.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Go M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nakai K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Takagi T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kanehisa M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sakaki Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Quackenbush J.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Okazaki Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hayashizaki Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Hide W.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Chakraborty R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nishikawa K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sugawara H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tateno Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Chen Z.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Oishi M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tonellato P.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Apweiler R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Okubo K.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Wagner L.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Wiemann S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Strausberg R.L.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Isogai T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Auffray C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nomura N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Gojobori T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sugano S.&lt;/name&gt;&lt;/list-item&gt;&lt;/authors&gt;&lt;date&gt;2004-09-27T00:00:00Z&lt;/date&gt;&lt;journal&gt;PLoS Biology&lt;/journal&gt;&lt;/metadata&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;doi&gt;&lt;/doi&gt;&lt;version&gt;&lt;/version&gt;&lt;pmid&gt;16845023&lt;/pmid&gt;&lt;type&gt;&lt;/type&gt;&lt;pmcid&gt;&lt;/pmcid&gt;&lt;metadata&gt;&lt;title&gt;TACT: Transcriptome Auto-annotation Conducting Tool of H-InvDB&lt;/title&gt;&lt;abstract&gt;Transcriptome Auto-annotation Conducting Tool (TACT) is a newly developed web-based automated tool for conducting functional annotation of transcripts by the integration of sequence similarity searches and functional motif predictions. We developed the TACT system by integrating two kinds of similarity searches, FASTY and BLASTX, against protein sequence databases, UniProtKB (Swiss-Prot/TrEMBL) and RefSeq, and a unified motif prediction program, InterProScan, into the ORF-prediction pipeline originally designed for the 'H-Invitational' human transcriptome annotation project. This system successively applies these constituent programs to an mRNA sequence in order to predict the most plausible ORF and the function of the protein encoded. In this study, we applied the TACT system to 19 574 non-redundant human transcripts registered in H-InvDB and evaluated its predictive power by the degree of agreement with human-curated functional annotation in H-InvDB. As a result, the TACT system could assign functional description to 12 559 transcripts (64.2%), the remainder being hypothetical proteins. Furthermore, the overall agreement of functional annotation with H-InvDB, including those transcripts annotated as hypothetical proteins, was 83.9% (16 432/19 574). These results show that the TACT system is useful for functional annotation and that the prediction of ORFs and protein functions is highly accurate and close to the results of human curation. TACT is freely available at http://www.jbirc.aist.go.jp/tact/. c The Author 2006. Published by Oxford University Press. All rights reserved.&lt;/abstract&gt;&lt;citationCount&gt;5&lt;/citationCount&gt;&lt;authors&gt;&lt;list-item&gt;&lt;name&gt;Yamasaki C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Kawashima H.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Todokoro F.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Imamizu Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Ogawa M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tanino M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Itoh T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Gojobori T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Imanishi T.&lt;/name&gt;&lt;/list-item&gt;&lt;/authors&gt;&lt;date&gt;2006-07-01T00:00:00Z&lt;/date&gt;&lt;journal&gt;Nucleic Acids Research&lt;/journal&gt;&lt;/metadata&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;doi&gt;&lt;/doi&gt;&lt;version&gt;&lt;/version&gt;&lt;pmid&gt;16185827&lt;/pmid&gt;&lt;type&gt;&lt;/type&gt;&lt;pmcid&gt;&lt;/pmcid&gt;&lt;metadata&gt;&lt;title&gt;Investigation of protein functions through data-mining on integrated human transcriptome database, H-Invitational database (H-InvDB)&lt;/title&gt;&lt;abstract&gt;H-Invitational Database (H-InvDB; http://www.h-invitational.jp/) is a human transcriptome database, containing integrative annotation of 41,118 full-length cDNA clones originated from 21,037 loci. H-InvDB is a product of the H-Invitational project, an international collaboration to systematically and functionally validate human genes by analysis of a unique set of high quality full-length cDNA clones using automatic annotation and human curation under unified criteria. Here, 19,574 proteins encoded by these cDNAs were classified into 11,709 function-known and 7865 function-unknown hypothetical proteins by similarity with protein databases and motif prediction (InterProScan). The proportion of "hypothetical proteins" in H-InvDB was as high as 40.4%. In this study, we thus conducted data-mining in H-InvDB with the aim of assigning advanced functional annotations to those hypothetical proteins. First, by data-mining in the H-InvDB version of GTOP, we identified 337 SCOP domains within 7865 H-Inv hypothetical proteins. Second, by data-mining of predicted subcellular localization by SOSUI and TMHMM in H-InvDB, we found 1032 transmembrane proteins within H-Inv hypothetical proteins. These results clearly demonstrate that structural prediction is effective for functional annotation of proteins with unknown functions. All the data in H-InvDB are shown in two main views, the cDNA view and the Locus view, and five auxiliary databases with web-based viewers; DiseaseInfo Viewer, H-ANGEL, Clustering Viewer, G-integra and TOPO Viewer; the data also are provided as flat files and XML files. The data consists of descriptions of their gene structures, novel alternative splicing isoforms, functional RNAs, functional domains, subcellular localizations, metabolic pathways, predictions of protein 3D structure, mapping of SNPs and microsatellite repeat motifs in relation with orphan diseases, gene expression profiling, and comparisons with mouse full-length cDNAs in the context of molecular evolution. This unique integrative platform for conducting in silico data-mining represents a substantial contribution to resources required for the exploration of human biology and pathology. c 2005 Elsevier B.V. All rights reserved.&lt;/abstract&gt;&lt;citationCount&gt;15&lt;/citationCount&gt;&lt;authors&gt;&lt;list-item&gt;&lt;name&gt;Yamasaki C.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Koyanagi K.O.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Fujii Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Itoh T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Barrero R.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tamura T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Yamaguchi-Kabata Y.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Tanino M.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Takeda J.-I.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Fukuchi S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Miyazaki S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Nomura N.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Sugano S.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Imanishi T.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Gojobori T.&lt;/name&gt;&lt;/list-item&gt;&lt;/authors&gt;&lt;date&gt;2005-12-30T00:00:00Z&lt;/date&gt;&lt;journal&gt;Gene&lt;/journal&gt;&lt;/metadata&gt;&lt;/list-item&gt;&lt;/publication&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;homepage&gt;http://coxpresdb.jp&lt;/homepage&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;toolType&gt;&lt;list-item&gt;Database portal&lt;/list-item&gt;&lt;/toolType&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;topic&gt;&lt;list-item&gt;&lt;term&gt;Zoology&lt;/term&gt;&lt;uri&gt;http://edamontology.org/topic_3500&lt;/uri&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;term&gt;Molecular interactions, pathways and networks&lt;/term&gt;&lt;uri&gt;http://edamontology.org/topic_0602&lt;/uri&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;term&gt;Plant biology&lt;/term&gt;&lt;uri&gt;http://edamontology.org/topic_0780&lt;/uri&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;term&gt;Omics&lt;/term&gt;&lt;uri&gt;http://edamontology.org/topic_3391&lt;/uri&gt;&lt;/list-item&gt;&lt;/topic&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "@context": "http://schema.org",
+  "@type": "SoftwareApplication",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"name": "COXPRESdb",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"description": "COXPRESdb (coexpressed gene database) represents the coexpression relationship for human and mouse. Upgrades include a new comparable coexpression measure, Mutual Rank, five other animal species, rat, chicken, zebrafish, fly and nematoda, and addition of different layers of omics data into the integrated network of genes.",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"softwareVersion": "",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"url": "http://coxpresdb.jp",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"citation": "http://identifiers.org/pubmed/21081562",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"license": "",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"publisher": "ELIXIR-EE",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"operatingSystem": ["Linux", "Windows", "Mac"],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"keywords": ["Zoology", "Molecular interactions, pathways and networks", "Plant biology", "Omics"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1502,7 +1729,7 @@
   <dimension ref="A1:AL19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1543,13 +1770,13 @@
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
@@ -1568,8 +1795,8 @@
       <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="5" t="s">
-        <v>99</v>
+      <c r="J2" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>17</v>
@@ -1584,7 +1811,7 @@
         <v>20</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>21</v>
@@ -1596,22 +1823,22 @@
         <v>23</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>25</v>
@@ -1629,13 +1856,13 @@
         <v>29</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>31</v>
@@ -1661,13 +1888,13 @@
         <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>0</v>
@@ -1679,25 +1906,25 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="V3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>5</v>
@@ -1706,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>7</v>
@@ -1721,63 +1948,66 @@
         <v>10</v>
       </c>
       <c r="AK3" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="378" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>53</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="D4" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>54</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="W4" s="2" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>11</v>
@@ -1788,16 +2018,16 @@
         <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2">
         <v>5303</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>1</v>
@@ -1806,22 +2036,22 @@
         <v>2</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="X5" s="2" t="s">
         <v>5</v>
@@ -1830,10 +2060,10 @@
         <v>6</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.45">

--- a/20181114comparisonAmongJsonldRdfApi.xlsx
+++ b/20181114comparisonAmongJsonldRdfApi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kushida\Documents\work20130923\JSTwork\ElixerBH2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96798596-A3A1-4FDA-97A3-88BE482D4085}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD12A50-A9F1-4656-BCCD-C3A62EAA151D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7824" xr2:uid="{DB58D1FF-C9AA-4B20-B8B0-E0FF832EAEEB}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
   <si>
     <t>&lt;additionDate&gt;2015-01-22T11:13:20Z&lt;/additionDate&gt;</t>
   </si>
@@ -1216,6 +1216,352 @@
         <scheme val="minor"/>
       </rPr>
       <t>"keywords": ["Zoology", "Molecular interactions, pathways and networks", "Plant biology", "Omics"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;additionDate&gt;2017-01-13T13:13:50Z&lt;/additionDate&gt;</t>
+  </si>
+  <si>
+    <t>&lt;cost&gt;Free of charge&lt;/cost&gt;</t>
+  </si>
+  <si>
+    <t>&lt;maturity&gt;Mature&lt;/maturity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;id&gt;blast&lt;/id&gt;</t>
+  </si>
+  <si>
+    <t>&lt;function&gt;&lt;list-item&gt;&lt;comment&gt;&lt;/comment&gt;&lt;input&gt;&lt;/input&gt;&lt;operation&gt;&lt;list-item&gt;&lt;term&gt;Sequence similarity search&lt;/term&gt;&lt;uri&gt;http://edamontology.org/operation_0346&lt;/uri&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;term&gt;Sequence alignment&lt;/term&gt;&lt;uri&gt;http://edamontology.org/operation_0292&lt;/uri&gt;&lt;/list-item&gt;&lt;/operation&gt;&lt;output&gt;&lt;/output&gt;&lt;/list-item&gt;&lt;/function&gt;</t>
+  </si>
+  <si>
+    <t>&lt;lastUpdate&gt;2018-06-07T17:10:18Z&lt;/lastUpdate&gt;</t>
+  </si>
+  <si>
+    <t>&lt;description&gt;A tool that finds regions of similarity between biological sequences. The program compares nucleotide or protein sequences to sequence databases and calculates the statistical significance.&lt;/description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;editPermission&gt;&lt;type&gt;group&lt;/type&gt;&lt;authors&gt;&lt;list-item&gt;ELIXIR-EE&lt;/list-item&gt;&lt;/authors&gt;&lt;/editPermission&gt;</t>
+  </si>
+  <si>
+    <t>&lt;name&gt;BLAST Support&lt;/name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;documentation&gt;&lt;list-item&gt;&lt;url&gt;https://blast.ncbi.nlm.nih.gov/Blast.cgi?CMD=Web&amp;amp;PAGE_TYPE=BlastDocs&lt;/url&gt;&lt;comment&gt;&lt;/comment&gt;&lt;type&gt;General&lt;/type&gt;&lt;/list-item&gt;&lt;/documentation&gt;</t>
+  </si>
+  <si>
+    <t>&lt;contact&gt;&lt;list-item&gt;&lt;url&gt;&lt;/url&gt;&lt;tel&gt;&lt;/tel&gt;&lt;email&gt;blast-help@ncbi.nlm.nih.gov&lt;/email&gt;&lt;/list-item&gt;&lt;/contact&gt;</t>
+  </si>
+  <si>
+    <t>https://bio.tools/blast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;https://bio.tools/blast&gt; a biotools:Resource ;
+    ns1:alternateIdentifier "https://blast.ncbi.nlm.nih.gov/Blast.cgi" ;
+    ns1:contributor "BLAST Support" ;
+    ns1:date "2017-01-13T13:13:50Z" ;
+    ns1:description "A tool that finds regions of similarity between biological sequences. The program compares nucleotide or protein sequences to sequence databases and calculates the statistical significance." ;
+    ns1:identifier "blast" ;
+    ns1:resourceType "Command-line tool",
+        "Web service" ;
+    ns1:title "BLAST (NIH)" ;
+    edam:has_topic edam:topic_0080,
+        edam:topic_0622,
+        edam:topic_2269,
+        edam:topic_3321 ;
+    dc:references &lt;https://doi.org/10.1016/S0022-2836(05)80360-2&gt;,
+        &lt;https://doi.org/10.1093/bioinformatics/btw305&gt;,
+        pmc:PMC5013910,
+        &lt;https://www.ncbi.nlm.nih.gov/pubmed/27256311&gt; ;
+    biotools:has_function edam:operation_0292,
+        edam:operation_0346 .</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;homepage&gt;https://blast.ncbi.nlm.nih.gov/Blast.cgi&lt;/homepage&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;owner&gt;seqwiki_import&lt;/owner&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;publication&gt;&lt;list-item&gt;&lt;doi&gt;10.1016/S0022-2836(05)80360-2&lt;/doi&gt;&lt;version&gt;&lt;/version&gt;&lt;pmid&gt;&lt;/pmid&gt;&lt;type&gt;Primary&lt;/type&gt;&lt;pmcid&gt;&lt;/pmcid&gt;&lt;metadata&gt;&lt;title&gt;Basic local alignment search tool&lt;/title&gt;&lt;abstract&gt;A new approach to rapid sequence comparison, basic local alignment search tool (BLAST), directly approximates alignments that optimize a measure of local similarity, the maximal segment pair (MSP) score. Recent mathematical results on the stochastic properties of MSP scores allow an analysis of the performance of this method as well as the statistical significance of alignments it generates. The basic algorithm is simple and robust; it can be implemented in a number of ways and applied in a variety of contexts including straight-forward DNA and protein sequence database searches, motif searches, gene identification searches, and in the analysis of multiple regions of similarity in long DNA sequences. In addition to its flexibility and tractability to mathematical analysis, BLAST is an order of magnitude faster than existing sequence comparison tools of comparable sensitivity. c 1990, Academic Press Limited. All rights reserved.&lt;/abstract&gt;&lt;citationCount&gt;52362&lt;/citationCount&gt;&lt;authors&gt;&lt;list-item&gt;&lt;name&gt;Altschul S.F.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Gish W.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Miller W.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Myers E.W.&lt;/name&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;name&gt;Lipman D.J.&lt;/name&gt;&lt;/list-item&gt;&lt;/authors&gt;&lt;date&gt;1990-01-01T00:00:00Z&lt;/date&gt;&lt;journal&gt;Journal of Molecular Biology&lt;/journal&gt;&lt;/metadata&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;doi&gt;10.1093/bioinformatics/btw305&lt;/doi&gt;&lt;version&gt;&lt;/version&gt;&lt;pmid&gt;27256311&lt;/pmid&gt;&lt;type&gt;Benchmark&lt;/type&gt;&lt;pmcid&gt;PMC5013910&lt;/pmcid&gt;&lt;metadata&gt;&lt;/metadata&gt;&lt;/list-item&gt;&lt;/publication&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;toolType&gt;&lt;list-item&gt;Command-line tool&lt;/list-item&gt;&lt;list-item&gt;Web service&lt;/list-item&gt;&lt;/toolType&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;topic&gt;&lt;list-item&gt;&lt;term&gt;Sequence analysis&lt;/term&gt;&lt;uri&gt;http://edamontology.org/topic_0080&lt;/uri&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;term&gt;Molecular genetics&lt;/term&gt;&lt;uri&gt;http://edamontology.org/topic_3321&lt;/uri&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;term&gt;Statistics and probability&lt;/term&gt;&lt;uri&gt;http://edamontology.org/topic_2269&lt;/uri&gt;&lt;/list-item&gt;&lt;list-item&gt;&lt;term&gt;Genomics&lt;/term&gt;&lt;uri&gt;http://edamontology.org/topic_0622&lt;/uri&gt;&lt;/list-item&gt;&lt;/topic&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;operatingSystem&gt;&lt;list-item&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/list-item&gt;&lt;list-item&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/list-item&gt;&lt;/operatingSystem&gt;</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+  "@context": "http://schema.org",
+  "@type": "SoftwareApplication",
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"name": "BLAST (NIH)",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"description": "A tool that finds regions of similarity between biological sequences. The program compares nucleotide or protein sequences to sequence databases and calculates the statistical significance.",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="7"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"softwareVersion": "",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"url": "https://blast.ncbi.nlm.nih.gov/Blast.cgi",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"citation": ["10.1016/S0022-2836(05)80360-2", "10.1093/bioinformatics/btw305", "pmid:27256311", "PMC5013910"],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"license": "",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"publisher": "seqwiki_import",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"operatingSystem": ["Linux", "Mac"],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"keywords": ["Command-line tool", "Web service", "Sequence analysis", "Molecular genetics", "Statistics and probability", "Genomics"]</t>
     </r>
     <r>
       <rPr>
@@ -1364,12 +1710,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1378,7 +1739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1388,28 +1749,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1726,10 +2090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2B35A5-4A08-494D-9105-96D4E3442DF0}">
-  <dimension ref="A1:AL19"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1738,7 +2102,7 @@
     <col min="2" max="2" width="34.8984375" customWidth="1"/>
     <col min="3" max="3" width="62.69921875" customWidth="1"/>
     <col min="4" max="4" width="69.59765625" customWidth="1"/>
-    <col min="5" max="5" width="37.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.09765625" style="2" customWidth="1"/>
     <col min="6" max="8" width="13.796875" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.796875" style="2" customWidth="1"/>
     <col min="10" max="10" width="19.59765625" style="2" customWidth="1"/>
@@ -1750,7 +2114,7 @@
     <col min="16" max="16" width="8.796875" style="2"/>
     <col min="17" max="17" width="14.5" style="2" customWidth="1"/>
     <col min="18" max="18" width="18.8984375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="38.3984375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="25.19921875" style="2" customWidth="1"/>
     <col min="20" max="20" width="33.69921875" style="2" customWidth="1"/>
     <col min="21" max="21" width="138.296875" style="2" customWidth="1"/>
     <col min="22" max="22" width="29.8984375" style="2" customWidth="1"/>
@@ -1778,6 +2142,7 @@
       <c r="E1" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="AK1" s="5"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="E2" s="2" t="s">
@@ -1795,7 +2160,7 @@
       <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>96</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -1810,7 +2175,7 @@
       <c r="N2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="6" t="s">
         <v>80</v>
       </c>
       <c r="P2" s="2" t="s">
@@ -1822,22 +2187,22 @@
       <c r="R2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="S2" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="4" t="s">
         <v>71</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="6" t="s">
         <v>74</v>
       </c>
       <c r="Y2" s="2" t="s">
@@ -1855,13 +2220,13 @@
       <c r="AC2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="6" t="s">
         <v>75</v>
       </c>
       <c r="AE2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF2" s="3" t="s">
+      <c r="AF2" s="6" t="s">
         <v>79</v>
       </c>
       <c r="AG2" s="2" t="s">
@@ -1876,7 +2241,7 @@
       <c r="AJ2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="3" t="s">
+      <c r="AK2" s="6" t="s">
         <v>35</v>
       </c>
       <c r="AL2" t="s">
@@ -1899,25 +2264,25 @@
       <c r="I3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="5" t="s">
         <v>85</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>73</v>
       </c>
       <c r="V3" s="2" t="s">
@@ -1926,18 +2291,19 @@
       <c r="W3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AD3" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="AF3" s="5"/>
       <c r="AG3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1947,7 +2313,7 @@
       <c r="AI3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AK3" s="9" t="s">
+      <c r="AK3" s="7" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1967,19 +2333,20 @@
       <c r="I4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="5" t="s">
         <v>97</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="5" t="s">
         <v>93</v>
       </c>
       <c r="R4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="S4" s="5"/>
+      <c r="T4" s="5" t="s">
         <v>99</v>
       </c>
       <c r="U4" s="2" t="s">
@@ -1988,154 +2355,228 @@
       <c r="V4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="W4" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="5" t="s">
         <v>100</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="2" t="s">
+      <c r="AD4" s="5" t="s">
         <v>101</v>
       </c>
       <c r="AE4" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="AF4" s="5"/>
       <c r="AG4" s="2" t="s">
         <v>58</v>
       </c>
       <c r="AI4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AK4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="409.6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>51</v>
-      </c>
+    <row r="5" spans="1:38" ht="378" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>114</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="E5" s="2">
-        <v>5303</v>
+        <v>2032</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>1</v>
+        <v>103</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>98</v>
+      <c r="O5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>65</v>
+        <v>106</v>
+      </c>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>5</v>
+        <v>108</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>69</v>
+        <v>110</v>
+      </c>
+      <c r="AD5" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
+      </c>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:38" ht="409.6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5303</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" s="5"/>
+      <c r="AK6" s="5"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B20" t="s">
         <v>49</v>
       </c>
     </row>
